--- a/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="PlantList" sheetId="3" r:id="rId1"/>
+    <sheet name="ProcessList" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,7 +684,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,7 +684,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3132,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>81</v>
       </c>
       <c r="D36" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="L5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>40</v>
       </c>
       <c r="L9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>50</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>50</v>
       </c>
       <c r="L12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="L13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="L18" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>40</v>
       </c>
       <c r="L21" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>40</v>
       </c>
       <c r="L22" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>10</v>
       </c>
       <c r="L23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M35" s="3">
         <v>85</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M36" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
         <v>300</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>40</v>
@@ -934,7 +934,7 @@
         <v>300</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3">
         <v>40</v>
@@ -1005,7 +1005,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
@@ -1360,7 +1360,7 @@
         <v>800</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>40</v>
@@ -1431,7 +1431,7 @@
         <v>800</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3">
         <v>40</v>
@@ -1502,7 +1502,7 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="3">
         <v>40</v>
@@ -1573,7 +1573,7 @@
         <v>800</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>40</v>
@@ -1644,7 +1644,7 @@
         <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>40</v>
@@ -1715,7 +1715,7 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>35</v>
@@ -1786,7 +1786,7 @@
         <v>800</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
         <v>35</v>
@@ -1857,7 +1857,7 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>35</v>
@@ -1928,7 +1928,7 @@
         <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F18" s="3">
         <v>35</v>
@@ -2070,7 +2070,7 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>35</v>
@@ -2141,7 +2141,7 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>35</v>
@@ -2212,7 +2212,7 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>35</v>
@@ -2354,7 +2354,7 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3">
         <v>30</v>
@@ -2851,7 +2851,7 @@
         <v>500</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="3">
         <v>60</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L30" sqref="L30:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M35" s="3">
         <v>85</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M36" s="3">
         <v>85</v>

--- a/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
+++ b/Data/Assumption/Zone_ExistProcess/ZoneC1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>MW</t>
   </si>
@@ -166,33 +166,21 @@
     <t>ITALY_REW_HYD_LG_1971</t>
   </si>
   <si>
-    <t>ITALY_REW_HYD_LG_1972</t>
-  </si>
-  <si>
     <t>ITALY_REW_PV_UTI_2001</t>
   </si>
   <si>
-    <t>ITALY_REW_HYD_LG_1998</t>
-  </si>
-  <si>
     <t>ITALY_COA_CHP_BP_DH_1998</t>
   </si>
   <si>
     <t>ITALY_REW_GEO_FLA_2014</t>
   </si>
   <si>
-    <t>ITALY_REW_HYD_PS_1983</t>
-  </si>
-  <si>
     <t>ITALY_REW_WND_ON_2530_2003</t>
   </si>
   <si>
     <t>ITALY_REW_HYD_LG_2007</t>
   </si>
   <si>
-    <t>ITALY_REW_WND_ON_2530_2009</t>
-  </si>
-  <si>
     <t>ITALY_REW_PV_UTI_2007</t>
   </si>
   <si>
@@ -202,12 +190,6 @@
     <t>ITALY_BIO_CHP_1988</t>
   </si>
   <si>
-    <t>ITALY_COA_SUB_LN_1993</t>
-  </si>
-  <si>
-    <t>ITALY_GAS_CHP_BP_DH_2001</t>
-  </si>
-  <si>
     <t>ITALY_OIL_ST_1996</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>ITALY_REW_GEO_BIN_2011</t>
   </si>
   <si>
-    <t>ITALY_GAS_CC_1992</t>
-  </si>
-  <si>
     <t>ITALY_GAS_GT_1962</t>
   </si>
   <si>
@@ -238,13 +217,7 @@
     <t>ITALY_GAS_CC_2012</t>
   </si>
   <si>
-    <t>ITALY_BIO_CHP_1999</t>
-  </si>
-  <si>
     <t>ITALY_COA_SUB_LN_1977</t>
-  </si>
-  <si>
-    <t>ITALY_COA_SC_LN_1993</t>
   </si>
   <si>
     <t>ITALY_REW_GEO_BIN_2005</t>
@@ -379,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -681,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:L36"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -928,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3">
         <v>300</v>
@@ -940,10 +913,10 @@
         <v>40</v>
       </c>
       <c r="G4" s="3">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="H4" s="3">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="I4" s="3">
         <v>7</v>
@@ -996,25 +969,25 @@
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
       </c>
       <c r="G5" s="3">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="H5" s="3">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="I5" s="3">
         <v>7</v>
@@ -1035,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P5" s="3">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>55.7</v>
+        <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>3376</v>
+        <v>2762</v>
       </c>
       <c r="S5" s="3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T5" s="3">
         <v>1E-3</v>
@@ -1070,22 +1043,22 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3">
         <v>150</v>
       </c>
       <c r="E6" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
       </c>
       <c r="G6" s="3">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="H6" s="3">
-        <v>2051</v>
+        <v>2034</v>
       </c>
       <c r="I6" s="3">
         <v>7</v>
@@ -1138,25 +1111,25 @@
         <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="H7" s="3">
-        <v>2034</v>
+        <v>2038</v>
       </c>
       <c r="I7" s="3">
         <v>7</v>
@@ -1177,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>35.6</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="R7" s="3">
-        <v>2762</v>
+        <v>2004</v>
       </c>
       <c r="S7" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T7" s="3">
         <v>1E-3</v>
@@ -1212,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3">
         <v>300</v>
@@ -1224,10 +1197,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="3">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="H8" s="3">
-        <v>2038</v>
+        <v>2045</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -1280,25 +1253,25 @@
         <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>2005</v>
+        <v>1968</v>
       </c>
       <c r="H9" s="3">
-        <v>2045</v>
+        <v>2020</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
@@ -1307,7 +1280,7 @@
         <v>95</v>
       </c>
       <c r="K9" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
@@ -1319,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P9" s="3">
-        <v>35.6</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>44.4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>2004</v>
+        <v>2415</v>
       </c>
       <c r="S9" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="T9" s="3">
         <v>1E-3</v>
@@ -1351,10 +1324,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3">
         <v>800</v>
@@ -1366,10 +1339,10 @@
         <v>40</v>
       </c>
       <c r="G10" s="3">
-        <v>1968</v>
+        <v>1977</v>
       </c>
       <c r="H10" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="I10" s="3">
         <v>7</v>
@@ -1390,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -1399,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>2415</v>
+        <v>2100</v>
       </c>
       <c r="S10" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T10" s="3">
         <v>1E-3</v>
@@ -1422,10 +1395,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3">
         <v>800</v>
@@ -1437,10 +1410,10 @@
         <v>40</v>
       </c>
       <c r="G11" s="3">
-        <v>1993</v>
+        <v>2008</v>
       </c>
       <c r="H11" s="3">
-        <v>2033</v>
+        <v>2048</v>
       </c>
       <c r="I11" s="3">
         <v>7</v>
@@ -1461,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P11" s="3">
         <v>0</v>
@@ -1470,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>2415</v>
+        <v>2730</v>
       </c>
       <c r="S11" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="T11" s="3">
         <v>1E-3</v>
@@ -1493,10 +1466,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3">
         <v>800</v>
@@ -1505,13 +1478,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="H12" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I12" s="3">
         <v>7</v>
@@ -1520,10 +1493,10 @@
         <v>95</v>
       </c>
       <c r="K12" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L12" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1532,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -1541,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>2100</v>
+        <v>1098</v>
       </c>
       <c r="S12" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T12" s="3">
         <v>1E-3</v>
@@ -1553,10 +1526,10 @@
         <v>5</v>
       </c>
       <c r="V12" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W12" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1564,10 +1537,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3">
         <v>800</v>
@@ -1576,13 +1549,13 @@
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
-        <v>1993</v>
+        <v>2012</v>
       </c>
       <c r="H13" s="3">
-        <v>2033</v>
+        <v>2047</v>
       </c>
       <c r="I13" s="3">
         <v>7</v>
@@ -1591,10 +1564,10 @@
         <v>95</v>
       </c>
       <c r="K13" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -1603,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="P13" s="3">
         <v>0</v>
@@ -1612,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>2100</v>
+        <v>1098</v>
       </c>
       <c r="S13" s="3">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T13" s="3">
         <v>1E-3</v>
@@ -1624,10 +1597,10 @@
         <v>5</v>
       </c>
       <c r="V13" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W13" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1635,25 +1608,25 @@
         <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="H14" s="3">
-        <v>2048</v>
+        <v>2031</v>
       </c>
       <c r="I14" s="3">
         <v>7</v>
@@ -1662,10 +1635,10 @@
         <v>95</v>
       </c>
       <c r="K14" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1674,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="R14" s="3">
-        <v>2730</v>
+        <v>910</v>
       </c>
       <c r="S14" s="3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="T14" s="3">
         <v>1E-3</v>
@@ -1695,10 +1668,10 @@
         <v>5</v>
       </c>
       <c r="V14" s="3">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="W14" s="4">
-        <v>320</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1706,25 +1679,25 @@
         <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>35</v>
       </c>
       <c r="G15" s="3">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="H15" s="3">
-        <v>2015</v>
+        <v>2046</v>
       </c>
       <c r="I15" s="3">
         <v>7</v>
@@ -1745,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="R15" s="3">
-        <v>1098</v>
+        <v>910</v>
       </c>
       <c r="S15" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="T15" s="3">
         <v>1E-3</v>
@@ -1777,13 +1750,13 @@
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1792,10 +1765,10 @@
         <v>35</v>
       </c>
       <c r="G16" s="3">
-        <v>1992</v>
+        <v>1962</v>
       </c>
       <c r="H16" s="3">
-        <v>2027</v>
+        <v>2015</v>
       </c>
       <c r="I16" s="3">
         <v>7</v>
@@ -1807,7 +1780,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -1816,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -1825,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>1098</v>
+        <v>800</v>
       </c>
       <c r="S16" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T16" s="3">
         <v>1E-3</v>
@@ -1848,13 +1821,13 @@
         <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -1863,10 +1836,10 @@
         <v>35</v>
       </c>
       <c r="G17" s="3">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="H17" s="3">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="I17" s="3">
         <v>7</v>
@@ -1878,7 +1851,7 @@
         <v>40</v>
       </c>
       <c r="L17" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1887,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1896,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>1098</v>
+        <v>800</v>
       </c>
       <c r="S17" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T17" s="3">
         <v>1E-3</v>
@@ -1919,25 +1892,25 @@
         <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3">
         <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="3">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I18" s="3">
         <v>7</v>
@@ -1946,10 +1919,10 @@
         <v>95</v>
       </c>
       <c r="K18" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L18" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1958,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P18" s="3">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>910</v>
+        <v>2000</v>
       </c>
       <c r="S18" s="3">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="T18" s="3">
         <v>1E-3</v>
@@ -1979,10 +1952,10 @@
         <v>5</v>
       </c>
       <c r="V18" s="3">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="W18" s="4">
-        <v>2550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1990,25 +1963,25 @@
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3">
         <v>300</v>
       </c>
       <c r="E19" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19" s="3">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H19" s="3">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="I19" s="3">
         <v>7</v>
@@ -2017,10 +1990,10 @@
         <v>95</v>
       </c>
       <c r="K19" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L19" s="3">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2029,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P19" s="3">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>910</v>
+        <v>2000</v>
       </c>
       <c r="S19" s="3">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="T19" s="3">
         <v>1E-3</v>
@@ -2050,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="V19" s="3">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="W19" s="4">
-        <v>2550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2061,37 +2034,37 @@
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
         <v>35</v>
       </c>
       <c r="G20" s="3">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="H20" s="3">
-        <v>2046</v>
+        <v>2038</v>
       </c>
       <c r="I20" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="3">
         <v>95</v>
       </c>
       <c r="K20" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2100,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P20" s="3">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>38.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>910</v>
+        <v>2039</v>
       </c>
       <c r="S20" s="3">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="T20" s="3">
         <v>1E-3</v>
@@ -2121,10 +2094,10 @@
         <v>5</v>
       </c>
       <c r="V20" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>2550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2132,37 +2105,37 @@
         <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3">
         <v>35</v>
       </c>
       <c r="G21" s="3">
-        <v>1962</v>
+        <v>2014</v>
       </c>
       <c r="H21" s="3">
-        <v>2015</v>
+        <v>2049</v>
       </c>
       <c r="I21" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" s="3">
         <v>95</v>
       </c>
       <c r="K21" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -2171,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -2180,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>800</v>
+        <v>2039</v>
       </c>
       <c r="S21" s="3">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T21" s="3">
         <v>1E-3</v>
@@ -2192,10 +2165,10 @@
         <v>5</v>
       </c>
       <c r="V21" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>2550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2203,37 +2176,37 @@
         <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <v>35</v>
       </c>
       <c r="G22" s="3">
-        <v>2004</v>
+        <v>1969</v>
       </c>
       <c r="H22" s="3">
-        <v>2039</v>
+        <v>2015</v>
       </c>
       <c r="I22" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" s="3">
         <v>95</v>
       </c>
       <c r="K22" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -2242,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -2251,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>800</v>
+        <v>1699</v>
       </c>
       <c r="S22" s="3">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="T22" s="3">
         <v>1E-3</v>
@@ -2263,10 +2236,10 @@
         <v>5</v>
       </c>
       <c r="V22" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="W22" s="4">
-        <v>2550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2274,47 +2247,47 @@
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G23" s="3">
-        <v>2000</v>
+        <v>1986</v>
       </c>
       <c r="H23" s="3">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="I23" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="3">
         <v>95</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>10</v>
       </c>
-      <c r="L23" s="3">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>32</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -2322,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>2000</v>
+        <v>1699</v>
       </c>
       <c r="S23" s="3">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="T23" s="3">
         <v>1E-3</v>
@@ -2334,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="V23" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2345,47 +2318,47 @@
         <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3">
-        <v>1996</v>
+        <v>2009</v>
       </c>
       <c r="H24" s="3">
-        <v>2026</v>
+        <v>2044</v>
       </c>
       <c r="I24" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" s="3">
         <v>95</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>10</v>
       </c>
-      <c r="L24" s="3">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>32</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2393,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>2000</v>
+        <v>1699</v>
       </c>
       <c r="S24" s="3">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="T24" s="3">
         <v>1E-3</v>
@@ -2405,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="V24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2416,28 +2389,28 @@
         <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G25" s="3">
-        <v>2003</v>
+        <v>1956</v>
       </c>
       <c r="H25" s="3">
-        <v>2038</v>
+        <v>2016</v>
       </c>
       <c r="I25" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
         <v>95</v>
@@ -2446,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -2455,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -2464,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>2039</v>
+        <v>2000</v>
       </c>
       <c r="S25" s="3">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="T25" s="3">
         <v>1E-3</v>
@@ -2487,28 +2460,28 @@
         <v>44</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G26" s="3">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="H26" s="3">
-        <v>2049</v>
+        <v>2060</v>
       </c>
       <c r="I26" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
         <v>95</v>
@@ -2517,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -2526,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2535,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>2039</v>
+        <v>2000</v>
       </c>
       <c r="S26" s="3">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="T26" s="3">
         <v>1E-3</v>
@@ -2558,28 +2531,28 @@
         <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>29</v>
+      </c>
+      <c r="F27" s="3">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2014</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2074</v>
+      </c>
+      <c r="I27" s="3">
         <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>35</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1969</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2015</v>
-      </c>
-      <c r="I27" s="3">
-        <v>6</v>
       </c>
       <c r="J27" s="3">
         <v>95</v>
@@ -2588,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -2597,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2606,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>1699</v>
+        <v>2000</v>
       </c>
       <c r="S27" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T27" s="3">
         <v>1E-3</v>
@@ -2629,28 +2602,28 @@
         <v>44</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G28" s="3">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="H28" s="3">
-        <v>2021</v>
+        <v>2065</v>
       </c>
       <c r="I28" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
         <v>95</v>
@@ -2659,16 +2632,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -2677,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>1699</v>
+        <v>3293</v>
       </c>
       <c r="S28" s="3">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="T28" s="3">
         <v>1E-3</v>
@@ -2700,25 +2673,25 @@
         <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="F29" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G29" s="3">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="H29" s="3">
-        <v>2044</v>
+        <v>2033</v>
       </c>
       <c r="I29" s="3">
         <v>6</v>
@@ -2739,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2748,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>1699</v>
+        <v>1942</v>
       </c>
       <c r="S29" s="3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="T29" s="3">
         <v>1E-3</v>
@@ -2771,28 +2744,28 @@
         <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E30" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G30" s="3">
-        <v>1956</v>
+        <v>2007</v>
       </c>
       <c r="H30" s="3">
-        <v>2016</v>
+        <v>2027</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J30" s="3">
         <v>95</v>
@@ -2801,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -2819,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>2000</v>
+        <v>1942</v>
       </c>
       <c r="S30" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T30" s="3">
         <v>1E-3</v>
@@ -2842,28 +2815,28 @@
         <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F31" s="3">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G31" s="3">
-        <v>1972</v>
+        <v>2002</v>
       </c>
       <c r="H31" s="3">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <v>95</v>
@@ -2872,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -2890,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="S31" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T31" s="3">
         <v>1E-3</v>
@@ -2909,712 +2882,73 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="3">
-        <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>60</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2008</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2068</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2">
+        <v>300</v>
+      </c>
+      <c r="E32" s="5">
+        <v>7</v>
+      </c>
+      <c r="F32" s="5">
+        <v>25</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2012</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2037</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <v>95</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>20</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>29</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1700</v>
+      </c>
+      <c r="S32" s="5">
+        <v>26</v>
+      </c>
+      <c r="T32" s="5">
         <v>1E-3</v>
       </c>
-      <c r="U32" s="3">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="3">
-        <v>500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3">
-        <v>60</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2060</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3">
-        <v>95</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>20</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>29</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U33" s="3">
-        <v>5</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="3">
-        <v>500</v>
-      </c>
-      <c r="E34" s="3">
-        <v>29</v>
-      </c>
-      <c r="F34" s="3">
-        <v>60</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2014</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2074</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" s="3">
-        <v>95</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>20</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>100</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S34" s="3">
-        <v>29</v>
-      </c>
-      <c r="T34" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U34" s="3">
-        <v>5</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="3">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>60</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1983</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2043</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>95</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>20</v>
-      </c>
-      <c r="M35" s="3">
-        <v>85</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>80</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>3293</v>
-      </c>
-      <c r="S35" s="3">
-        <v>48</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U35" s="3">
-        <v>5</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="3">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>60</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2005</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2065</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>95</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>20</v>
-      </c>
-      <c r="M36" s="3">
-        <v>85</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3">
-        <v>80</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
-        <v>3293</v>
-      </c>
-      <c r="S36" s="3">
-        <v>48</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U36" s="3">
-        <v>5</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
-      <c r="W36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="3">
-        <v>300</v>
-      </c>
-      <c r="E37" s="3">
-        <v>218</v>
-      </c>
-      <c r="F37" s="3">
-        <v>20</v>
-      </c>
-      <c r="G37" s="3">
-        <v>2013</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2033</v>
-      </c>
-      <c r="I37" s="3">
-        <v>6</v>
-      </c>
-      <c r="J37" s="3">
-        <v>95</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3">
-        <v>100</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3">
-        <v>1942</v>
-      </c>
-      <c r="S37" s="3">
-        <v>19</v>
-      </c>
-      <c r="T37" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U37" s="3">
-        <v>5</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="3">
-        <v>300</v>
-      </c>
-      <c r="E38" s="3">
-        <v>18</v>
-      </c>
-      <c r="F38" s="3">
-        <v>20</v>
-      </c>
-      <c r="G38" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2027</v>
-      </c>
-      <c r="I38" s="3">
-        <v>6</v>
-      </c>
-      <c r="J38" s="3">
-        <v>95</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>100</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3">
-        <v>1942</v>
-      </c>
-      <c r="S38" s="3">
-        <v>19</v>
-      </c>
-      <c r="T38" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U38" s="3">
-        <v>5</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="3">
-        <v>300</v>
-      </c>
-      <c r="E39" s="3">
-        <v>19</v>
-      </c>
-      <c r="F39" s="3">
-        <v>25</v>
-      </c>
-      <c r="G39" s="3">
-        <v>2002</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2027</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3">
-        <v>95</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <v>100</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S39" s="3">
-        <v>26</v>
-      </c>
-      <c r="T39" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U39" s="3">
-        <v>5</v>
-      </c>
-      <c r="V39" s="3">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="3">
-        <v>300</v>
-      </c>
-      <c r="E40" s="3">
-        <v>11</v>
-      </c>
-      <c r="F40" s="3">
-        <v>25</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2003</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2028</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>95</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>100</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S40" s="3">
-        <v>26</v>
-      </c>
-      <c r="T40" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="U40" s="3">
-        <v>5</v>
-      </c>
-      <c r="V40" s="3">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="2">
-        <v>300</v>
-      </c>
-      <c r="E41" s="5">
-        <v>7</v>
-      </c>
-      <c r="F41" s="5">
-        <v>25</v>
-      </c>
-      <c r="G41" s="5">
-        <v>2012</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2037</v>
-      </c>
-      <c r="I41" s="5">
-        <v>0</v>
-      </c>
-      <c r="J41" s="5">
-        <v>95</v>
-      </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>100</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>1700</v>
-      </c>
-      <c r="S41" s="5">
-        <v>26</v>
-      </c>
-      <c r="T41" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U41" s="5">
-        <v>5</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
+      <c r="U32" s="5">
+        <v>5</v>
+      </c>
+      <c r="V32" s="5">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
         <v>0</v>
       </c>
     </row>
